--- a/resource/cn/csv/Bullet.xlsx
+++ b/resource/cn/csv/Bullet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_synthesis_game\resource\cn\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_wqGame\resource\cn\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F3A5E-311E-4971-9CB0-65D58AFC92CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB2ABA5-4126-4AFF-88C6-452C32D14439}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="1275" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -31,21 +31,6 @@
     <t>assetScale</t>
   </si>
   <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>accSpeed</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t>dieSound</t>
   </si>
   <si>
@@ -64,45 +49,15 @@
     <t>放大倍数</t>
   </si>
   <si>
-    <t>延迟</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>初始速度</t>
-  </si>
-  <si>
-    <t>加速度</t>
-  </si>
-  <si>
-    <t>与敌人距离</t>
-  </si>
-  <si>
     <t>子弹销毁音效</t>
   </si>
   <si>
     <t>子弹发射音效</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>100_1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>ui_bao01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +75,30 @@
   </si>
   <si>
     <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,31 +437,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="2"/>
+    <col min="3" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -491,133 +467,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +553,7 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3 A3 A2 A1 B1:C1 B2:C2 E2:G2" numberStoredAsText="1"/>
+    <ignoredError sqref="C3 A3 A2 B1:C1 B2:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resource/cn/csv/Bullet.xlsx
+++ b/resource/cn/csv/Bullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\egret\work\egret_wqGame\resource\cn\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB2ABA5-4126-4AFF-88C6-452C32D14439}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085A7D2-41DB-4759-BD24-79A58786F7D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="1275" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C7251145-50C7-49B1-9450-F3F448A957C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0：不旋转
+1：旋转</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +136,33 @@
   </si>
   <si>
     <t>bulletId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞斧</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,6 +183,21 @@
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,27 +515,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="3" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -470,16 +549,19 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,8 +574,8 @@
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -501,8 +583,11 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,16 +601,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -539,13 +627,42 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -555,5 +672,6 @@
   <ignoredErrors>
     <ignoredError sqref="C3 A3 A2 B1:C1 B2:C2" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>